--- a/content/drafts/entitats/Codis_Territori_Paisos_INE.xlsx
+++ b/content/drafts/entitats/Codis_Territori_Paisos_INE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\02.Projecte_DadesRef\_____c6\01.CATaleg\07.Proposta_noves_ER\04.Cataleg_Entitats_Modelades.v03\07.Continents_paisos\Propostes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBAE146-D72E-41C2-AA8C-6B790777D32B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D4D557-FF83-4E6F-93BC-79A291D7B193}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{2A9043EE-0398-4927-8C09-CA4E22432D8B}"/>
   </bookViews>
@@ -1535,9 +1535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2437B9F8-92A3-4EC2-8B66-E7A00C4A92EC}">
   <dimension ref="A1:F258"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/content/drafts/entitats/Codis_Territori_Paisos_INE.xlsx
+++ b/content/drafts/entitats/Codis_Territori_Paisos_INE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\02.Projecte_DadesRef\_____c6\01.CATaleg\07.Proposta_noves_ER\04.Cataleg_Entitats_Modelades.v03\07.Continents_paisos\Propostes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D4D557-FF83-4E6F-93BC-79A291D7B193}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DCEB47-2F89-4660-86BB-6158E39445AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{2A9043EE-0398-4927-8C09-CA4E22432D8B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="311">
   <si>
     <t>Nom Taula:</t>
   </si>
@@ -351,9 +351,6 @@
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>AF</t>
-  </si>
-  <si>
     <t>Afganistan</t>
   </si>
   <si>
@@ -363,9 +360,6 @@
     <t>Bhutan</t>
   </si>
   <si>
-    <t>AM</t>
-  </si>
-  <si>
     <t>Armènia</t>
   </si>
   <si>
@@ -468,15 +462,9 @@
     <t>Altres/Diversos</t>
   </si>
   <si>
-    <t>EU</t>
-  </si>
-  <si>
     <t>Albània</t>
   </si>
   <si>
-    <t>AD</t>
-  </si>
-  <si>
     <t>Andorra</t>
   </si>
   <si>
@@ -648,9 +636,6 @@
     <t>Illes Salomó</t>
   </si>
   <si>
-    <t>NC</t>
-  </si>
-  <si>
     <t>Nova Caledònia</t>
   </si>
   <si>
@@ -765,9 +750,6 @@
     <t>Samoa</t>
   </si>
   <si>
-    <t>AS</t>
-  </si>
-  <si>
     <t>Samoa Americana</t>
   </si>
   <si>
@@ -831,9 +813,6 @@
     <t>Sudan, el</t>
   </si>
   <si>
-    <t>OC</t>
-  </si>
-  <si>
     <t>Aland</t>
   </si>
   <si>
@@ -919,6 +898,72 @@
   </si>
   <si>
     <t>Territoris Palestins</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1067,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1047,7 +1092,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1059,6 +1103,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1101,6 +1160,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1139,6 +1199,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1545,35 +1606,7 @@
     <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="104.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="100.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="100.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="100.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="29.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="100.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="21.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="105.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="28.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="28" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="46.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="11.453125" style="2"/>
+    <col min="7" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -1581,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1594,10 +1627,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>1</v>
@@ -1617,16 +1650,16 @@
         <v>401</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>244</v>
+        <v>106</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>289</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="14">
-        <v>12</v>
+      <c r="E4" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>100</v>
@@ -1637,16 +1670,16 @@
         <v>177</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>145</v>
+        <v>260</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>290</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="14">
-        <v>17</v>
+      <c r="E5" s="21" t="s">
+        <v>297</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>19</v>
@@ -1657,136 +1690,136 @@
         <v>101</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>290</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="14">
-        <v>16</v>
+      <c r="E6" s="21" t="s">
+        <v>298</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="15">
+      <c r="A7" s="14">
         <v>126</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>145</v>
+      <c r="B7" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>290</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="14">
-        <v>17</v>
+      <c r="E7" s="21" t="s">
+        <v>297</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="17">
+      <c r="A8" s="16">
         <v>203</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>106</v>
+      <c r="C8" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="12">
-        <v>5</v>
+      <c r="E8" s="22" t="s">
+        <v>290</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="17">
+      <c r="A9" s="16">
         <v>299</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>106</v>
+        <v>273</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="12">
-        <v>98</v>
+      <c r="E9" s="22" t="s">
+        <v>294</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="17">
+      <c r="A10" s="16">
         <v>399</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>110</v>
+        <v>274</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>292</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="12">
-        <v>98</v>
+      <c r="E10" s="22" t="s">
+        <v>294</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="17">
+      <c r="A11" s="16">
         <v>397</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>110</v>
+        <v>275</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>292</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="12">
-        <v>99</v>
+      <c r="E11" s="22" t="s">
+        <v>295</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="17">
+      <c r="A12" s="16">
         <v>396</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>110</v>
+        <v>276</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>292</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="12">
-        <v>7</v>
+      <c r="E12" s="22" t="s">
+        <v>299</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>72</v>
@@ -1797,16 +1830,16 @@
         <v>398</v>
       </c>
       <c r="B13" t="s">
-        <v>284</v>
-      </c>
-      <c r="C13" t="s">
-        <v>110</v>
+        <v>277</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E13">
-        <v>8</v>
+      <c r="E13" s="23" t="s">
+        <v>300</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>78</v>
@@ -1817,19 +1850,19 @@
         <v>499</v>
       </c>
       <c r="B14" t="s">
-        <v>285</v>
-      </c>
-      <c r="C14" t="s">
-        <v>244</v>
+        <v>278</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E14">
-        <v>98</v>
+      <c r="E14" s="23" t="s">
+        <v>294</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -1837,19 +1870,19 @@
         <v>199</v>
       </c>
       <c r="B15" t="s">
-        <v>286</v>
-      </c>
-      <c r="C15" t="s">
-        <v>145</v>
+        <v>279</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E15">
-        <v>98</v>
+      <c r="E15" s="23" t="s">
+        <v>294</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -1857,19 +1890,19 @@
         <v>179</v>
       </c>
       <c r="B16" t="s">
-        <v>287</v>
-      </c>
-      <c r="C16" t="s">
-        <v>145</v>
+        <v>280</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E16">
-        <v>16</v>
+      <c r="E16" s="23" t="s">
+        <v>298</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -1877,19 +1910,19 @@
         <v>599</v>
       </c>
       <c r="B17" t="s">
-        <v>288</v>
-      </c>
-      <c r="C17" t="s">
-        <v>266</v>
+        <v>281</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>293</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17">
-        <v>98</v>
+        <v>132</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>294</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -1897,16 +1930,16 @@
         <v>159</v>
       </c>
       <c r="B18" t="s">
-        <v>289</v>
-      </c>
-      <c r="C18" t="s">
-        <v>145</v>
+        <v>282</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E18">
-        <v>17</v>
+      <c r="E18" s="23" t="s">
+        <v>297</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>19</v>
@@ -1917,19 +1950,19 @@
         <v>124</v>
       </c>
       <c r="B19" t="s">
-        <v>148</v>
-      </c>
-      <c r="C19" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E19">
-        <v>16</v>
+      <c r="E19" s="23" t="s">
+        <v>298</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -1939,14 +1972,14 @@
       <c r="B20" t="s">
         <v>5</v>
       </c>
-      <c r="C20" t="s">
-        <v>106</v>
+      <c r="C20" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E20">
-        <v>1</v>
+      <c r="E20" s="23" t="s">
+        <v>291</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>7</v>
@@ -1957,16 +1990,16 @@
         <v>388</v>
       </c>
       <c r="B21" t="s">
-        <v>199</v>
-      </c>
-      <c r="C21" t="s">
-        <v>110</v>
+        <v>195</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E21">
-        <v>9</v>
+      <c r="E21" s="23" t="s">
+        <v>301</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>91</v>
@@ -1977,16 +2010,16 @@
         <v>310</v>
       </c>
       <c r="B22" t="s">
-        <v>200</v>
-      </c>
-      <c r="C22" t="s">
-        <v>110</v>
+        <v>196</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E22">
-        <v>9</v>
+      <c r="E22" s="23" t="s">
+        <v>301</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>91</v>
@@ -1997,16 +2030,16 @@
         <v>392</v>
       </c>
       <c r="B23" t="s">
-        <v>290</v>
-      </c>
-      <c r="C23" t="s">
-        <v>110</v>
+        <v>283</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E23">
-        <v>9</v>
+      <c r="E23" s="23" t="s">
+        <v>301</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>91</v>
@@ -2017,19 +2050,19 @@
         <v>402</v>
       </c>
       <c r="B24" t="s">
-        <v>222</v>
-      </c>
-      <c r="C24" t="s">
-        <v>244</v>
+        <v>217</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E24">
-        <v>13</v>
+      <c r="E24" s="23" t="s">
+        <v>302</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -2039,14 +2072,14 @@
       <c r="B25" t="s">
         <v>82</v>
       </c>
-      <c r="C25" t="s">
-        <v>110</v>
+      <c r="C25" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E25">
-        <v>8</v>
+      <c r="E25" s="23" t="s">
+        <v>300</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>78</v>
@@ -2057,19 +2090,19 @@
         <v>148</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" t="s">
-        <v>145</v>
+        <v>109</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E26">
-        <v>16</v>
+      <c r="E26" s="23" t="s">
+        <v>298</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -2077,16 +2110,16 @@
         <v>391</v>
       </c>
       <c r="B27" t="s">
-        <v>201</v>
-      </c>
-      <c r="C27" t="s">
-        <v>110</v>
+        <v>197</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E27">
-        <v>9</v>
+      <c r="E27" s="23" t="s">
+        <v>301</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>91</v>
@@ -2097,19 +2130,19 @@
         <v>501</v>
       </c>
       <c r="B28" t="s">
-        <v>136</v>
-      </c>
-      <c r="C28" t="s">
-        <v>266</v>
+        <v>134</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>293</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E28">
-        <v>18</v>
+        <v>132</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>303</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -2117,16 +2150,16 @@
         <v>102</v>
       </c>
       <c r="B29" t="s">
-        <v>164</v>
-      </c>
-      <c r="C29" t="s">
-        <v>145</v>
+        <v>160</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E29">
-        <v>17</v>
+      <c r="E29" s="23" t="s">
+        <v>297</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>19</v>
@@ -2137,19 +2170,19 @@
         <v>442</v>
       </c>
       <c r="B30" t="s">
-        <v>142</v>
-      </c>
-      <c r="C30" t="s">
-        <v>145</v>
+        <v>140</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E30">
-        <v>16</v>
+      <c r="E30" s="23" t="s">
+        <v>298</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -2157,16 +2190,16 @@
         <v>311</v>
       </c>
       <c r="B31" t="s">
-        <v>254</v>
-      </c>
-      <c r="C31" t="s">
-        <v>110</v>
+        <v>248</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E31">
-        <v>9</v>
+      <c r="E31" s="23" t="s">
+        <v>301</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>91</v>
@@ -2177,19 +2210,19 @@
         <v>403</v>
       </c>
       <c r="B32" t="s">
-        <v>223</v>
-      </c>
-      <c r="C32" t="s">
-        <v>244</v>
+        <v>218</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E32">
-        <v>13</v>
+      <c r="E32" s="23" t="s">
+        <v>302</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -2197,16 +2230,16 @@
         <v>404</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
-      </c>
-      <c r="C33" t="s">
-        <v>244</v>
+        <v>107</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E33">
-        <v>12</v>
+      <c r="E33" s="23" t="s">
+        <v>296</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>100</v>
@@ -2217,16 +2250,16 @@
         <v>312</v>
       </c>
       <c r="B34" t="s">
-        <v>225</v>
-      </c>
-      <c r="C34" t="s">
-        <v>110</v>
+        <v>220</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E34">
-        <v>9</v>
+      <c r="E34" s="23" t="s">
+        <v>301</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>91</v>
@@ -2237,19 +2270,19 @@
         <v>138</v>
       </c>
       <c r="B35" t="s">
-        <v>171</v>
-      </c>
-      <c r="C35" t="s">
-        <v>145</v>
+        <v>167</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E35">
-        <v>16</v>
+      <c r="E35" s="23" t="s">
+        <v>298</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -2257,16 +2290,16 @@
         <v>103</v>
       </c>
       <c r="B36" t="s">
-        <v>165</v>
-      </c>
-      <c r="C36" t="s">
-        <v>145</v>
+        <v>161</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E36">
-        <v>17</v>
+      <c r="E36" s="23" t="s">
+        <v>297</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>19</v>
@@ -2279,14 +2312,14 @@
       <c r="B37" t="s">
         <v>62</v>
       </c>
-      <c r="C37" t="s">
-        <v>110</v>
+      <c r="C37" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E37">
-        <v>6</v>
+      <c r="E37" s="23" t="s">
+        <v>293</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>64</v>
@@ -2299,14 +2332,14 @@
       <c r="B38" t="s">
         <v>23</v>
       </c>
-      <c r="C38" t="s">
-        <v>106</v>
+      <c r="C38" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E38">
-        <v>3</v>
+      <c r="E38" s="23" t="s">
+        <v>304</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>24</v>
@@ -2319,14 +2352,14 @@
       <c r="B39" t="s">
         <v>71</v>
       </c>
-      <c r="C39" t="s">
-        <v>110</v>
+      <c r="C39" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E39">
-        <v>7</v>
+      <c r="E39" s="23" t="s">
+        <v>299</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>72</v>
@@ -2337,16 +2370,16 @@
         <v>448</v>
       </c>
       <c r="B40" t="s">
-        <v>109</v>
-      </c>
-      <c r="C40" t="s">
-        <v>244</v>
+        <v>108</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E40">
-        <v>12</v>
+      <c r="E40" s="23" t="s">
+        <v>296</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>100</v>
@@ -2359,14 +2392,14 @@
       <c r="B41" t="s">
         <v>77</v>
       </c>
-      <c r="C41" t="s">
-        <v>110</v>
+      <c r="C41" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E41">
-        <v>8</v>
+      <c r="E41" s="23" t="s">
+        <v>300</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>78</v>
@@ -2377,16 +2410,16 @@
         <v>354</v>
       </c>
       <c r="B42" t="s">
-        <v>226</v>
-      </c>
-      <c r="C42" t="s">
-        <v>110</v>
+        <v>221</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E42">
-        <v>9</v>
+      <c r="E42" s="23" t="s">
+        <v>301</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>91</v>
@@ -2397,19 +2430,19 @@
         <v>145</v>
       </c>
       <c r="B43" t="s">
-        <v>149</v>
-      </c>
-      <c r="C43" t="s">
         <v>145</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E43">
-        <v>16</v>
+      <c r="E43" s="23" t="s">
+        <v>298</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -2419,14 +2452,14 @@
       <c r="B44" t="s">
         <v>16</v>
       </c>
-      <c r="C44" t="s">
-        <v>106</v>
+      <c r="C44" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E44">
-        <v>2</v>
+      <c r="E44" s="23" t="s">
+        <v>292</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>17</v>
@@ -2439,14 +2472,14 @@
       <c r="B45" t="s">
         <v>80</v>
       </c>
-      <c r="C45" t="s">
-        <v>110</v>
+      <c r="C45" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E45">
-        <v>8</v>
+      <c r="E45" s="23" t="s">
+        <v>300</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>78</v>
@@ -2457,19 +2490,19 @@
         <v>439</v>
       </c>
       <c r="B46" t="s">
-        <v>121</v>
-      </c>
-      <c r="C46" t="s">
-        <v>244</v>
+        <v>119</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E46">
-        <v>15</v>
+      <c r="E46" s="23" t="s">
+        <v>305</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
@@ -2477,16 +2510,16 @@
         <v>104</v>
       </c>
       <c r="B47" t="s">
-        <v>140</v>
-      </c>
-      <c r="C47" t="s">
-        <v>145</v>
+        <v>138</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E47">
-        <v>17</v>
+      <c r="E47" s="23" t="s">
+        <v>297</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>19</v>
@@ -2499,14 +2532,14 @@
       <c r="B48" t="s">
         <v>25</v>
       </c>
-      <c r="C48" t="s">
-        <v>106</v>
+      <c r="C48" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E48">
-        <v>3</v>
+      <c r="E48" s="23" t="s">
+        <v>304</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>24</v>
@@ -2517,16 +2550,16 @@
         <v>206</v>
       </c>
       <c r="B49" t="s">
-        <v>197</v>
-      </c>
-      <c r="C49" t="s">
-        <v>106</v>
+        <v>193</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E49">
-        <v>4</v>
+      <c r="E49" s="23" t="s">
+        <v>289</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>41</v>
@@ -2537,19 +2570,19 @@
         <v>417</v>
       </c>
       <c r="B50" t="s">
-        <v>123</v>
-      </c>
-      <c r="C50" t="s">
-        <v>244</v>
+        <v>121</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E50">
-        <v>15</v>
+      <c r="E50" s="23" t="s">
+        <v>305</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -2559,14 +2592,14 @@
       <c r="B51" t="s">
         <v>8</v>
       </c>
-      <c r="C51" t="s">
-        <v>106</v>
+      <c r="C51" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E51">
-        <v>1</v>
+      <c r="E51" s="23" t="s">
+        <v>291</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>7</v>
@@ -2579,14 +2612,14 @@
       <c r="B52" t="s">
         <v>76</v>
       </c>
-      <c r="C52" t="s">
-        <v>110</v>
+      <c r="C52" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E52">
-        <v>7</v>
+      <c r="E52" s="23" t="s">
+        <v>299</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>72</v>
@@ -2599,14 +2632,14 @@
       <c r="B53" t="s">
         <v>26</v>
       </c>
-      <c r="C53" t="s">
-        <v>106</v>
+      <c r="C53" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E53">
-        <v>3</v>
+      <c r="E53" s="23" t="s">
+        <v>304</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>24</v>
@@ -2619,14 +2652,14 @@
       <c r="B54" t="s">
         <v>83</v>
       </c>
-      <c r="C54" t="s">
-        <v>110</v>
+      <c r="C54" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E54">
-        <v>8</v>
+      <c r="E54" s="23" t="s">
+        <v>300</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>78</v>
@@ -2637,16 +2670,16 @@
         <v>209</v>
       </c>
       <c r="B55" t="s">
-        <v>255</v>
-      </c>
-      <c r="C55" t="s">
-        <v>106</v>
+        <v>249</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E55">
-        <v>4</v>
+      <c r="E55" s="23" t="s">
+        <v>289</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>41</v>
@@ -2659,14 +2692,14 @@
       <c r="B56" t="s">
         <v>9</v>
       </c>
-      <c r="C56" t="s">
-        <v>106</v>
+      <c r="C56" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E56">
-        <v>1</v>
+      <c r="E56" s="23" t="s">
+        <v>291</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>7</v>
@@ -2677,19 +2710,19 @@
         <v>431</v>
       </c>
       <c r="B57" t="s">
-        <v>114</v>
-      </c>
-      <c r="C57" t="s">
-        <v>244</v>
+        <v>112</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E57">
-        <v>14</v>
+      <c r="E57" s="23" t="s">
+        <v>306</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
@@ -2697,19 +2730,19 @@
         <v>430</v>
       </c>
       <c r="B58" t="s">
-        <v>116</v>
-      </c>
-      <c r="C58" t="s">
-        <v>244</v>
+        <v>114</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E58">
-        <v>14</v>
+      <c r="E58" s="23" t="s">
+        <v>306</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
@@ -2719,14 +2752,14 @@
       <c r="B59" t="s">
         <v>27</v>
       </c>
-      <c r="C59" t="s">
-        <v>106</v>
+      <c r="C59" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E59">
-        <v>3</v>
+      <c r="E59" s="23" t="s">
+        <v>304</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>24</v>
@@ -2739,14 +2772,14 @@
       <c r="B60" t="s">
         <v>65</v>
       </c>
-      <c r="C60" t="s">
-        <v>110</v>
+      <c r="C60" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E60">
-        <v>6</v>
+      <c r="E60" s="23" t="s">
+        <v>293</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>64</v>
@@ -2757,16 +2790,16 @@
         <v>146</v>
       </c>
       <c r="B61" t="s">
-        <v>150</v>
-      </c>
-      <c r="C61" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E61">
-        <v>17</v>
+      <c r="E61" s="23" t="s">
+        <v>297</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>19</v>
@@ -2777,16 +2810,16 @@
         <v>315</v>
       </c>
       <c r="B62" t="s">
-        <v>192</v>
-      </c>
-      <c r="C62" t="s">
-        <v>110</v>
+        <v>188</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E62">
-        <v>9</v>
+      <c r="E62" s="23" t="s">
+        <v>301</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>91</v>
@@ -2797,16 +2830,16 @@
         <v>352</v>
       </c>
       <c r="B63" t="s">
-        <v>227</v>
-      </c>
-      <c r="C63" t="s">
-        <v>110</v>
+        <v>222</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E63">
-        <v>9</v>
+      <c r="E63" s="23" t="s">
+        <v>301</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>91</v>
@@ -2817,16 +2850,16 @@
         <v>107</v>
       </c>
       <c r="B64" t="s">
-        <v>180</v>
-      </c>
-      <c r="C64" t="s">
-        <v>145</v>
+        <v>176</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E64">
-        <v>17</v>
+      <c r="E64" s="23" t="s">
+        <v>297</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>19</v>
@@ -2839,14 +2872,14 @@
       <c r="B65" t="s">
         <v>42</v>
       </c>
-      <c r="C65" t="s">
-        <v>106</v>
+      <c r="C65" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E65">
-        <v>4</v>
+      <c r="E65" s="23" t="s">
+        <v>289</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>41</v>
@@ -2857,16 +2890,16 @@
         <v>316</v>
       </c>
       <c r="B66" t="s">
-        <v>228</v>
-      </c>
-      <c r="C66" t="s">
-        <v>110</v>
+        <v>223</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E66">
-        <v>9</v>
+      <c r="E66" s="23" t="s">
+        <v>301</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>91</v>
@@ -2877,16 +2910,16 @@
         <v>213</v>
       </c>
       <c r="B67" t="s">
-        <v>214</v>
-      </c>
-      <c r="C67" t="s">
-        <v>106</v>
+        <v>209</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E67">
-        <v>5</v>
+      <c r="E67" s="23" t="s">
+        <v>290</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>58</v>
@@ -2899,14 +2932,14 @@
       <c r="B68" t="s">
         <v>66</v>
       </c>
-      <c r="C68" t="s">
-        <v>110</v>
+      <c r="C68" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E68">
-        <v>6</v>
+      <c r="E68" s="23" t="s">
+        <v>293</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>64</v>
@@ -2917,19 +2950,19 @@
         <v>408</v>
       </c>
       <c r="B69" t="s">
-        <v>256</v>
-      </c>
-      <c r="C69" t="s">
-        <v>244</v>
+        <v>250</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E69">
-        <v>13</v>
+      <c r="E69" s="23" t="s">
+        <v>302</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
@@ -2939,14 +2972,14 @@
       <c r="B70" t="s">
         <v>84</v>
       </c>
-      <c r="C70" t="s">
-        <v>110</v>
+      <c r="C70" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E70">
-        <v>8</v>
+      <c r="E70" s="23" t="s">
+        <v>300</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>78</v>
@@ -2959,14 +2992,14 @@
       <c r="B71" t="s">
         <v>43</v>
       </c>
-      <c r="C71" t="s">
-        <v>106</v>
+      <c r="C71" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E71">
-        <v>4</v>
+      <c r="E71" s="23" t="s">
+        <v>289</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>41</v>
@@ -2977,16 +3010,16 @@
         <v>144</v>
       </c>
       <c r="B72" t="s">
-        <v>172</v>
-      </c>
-      <c r="C72" t="s">
-        <v>145</v>
+        <v>168</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E72">
-        <v>17</v>
+      <c r="E72" s="23" t="s">
+        <v>297</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>19</v>
@@ -2997,16 +3030,16 @@
         <v>147</v>
       </c>
       <c r="B73" t="s">
-        <v>151</v>
-      </c>
-      <c r="C73" t="s">
-        <v>145</v>
+        <v>147</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E73">
-        <v>17</v>
+      <c r="E73" s="23" t="s">
+        <v>297</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>19</v>
@@ -3017,16 +3050,16 @@
         <v>108</v>
       </c>
       <c r="B74" t="s">
-        <v>152</v>
-      </c>
-      <c r="C74" t="s">
-        <v>145</v>
+        <v>148</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E74">
-        <v>17</v>
+      <c r="E74" s="23" t="s">
+        <v>297</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>19</v>
@@ -3037,16 +3070,16 @@
         <v>302</v>
       </c>
       <c r="B75" t="s">
-        <v>257</v>
-      </c>
-      <c r="C75" t="s">
-        <v>110</v>
+        <v>251</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E75">
-        <v>7</v>
+      <c r="E75" s="23" t="s">
+        <v>299</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>72</v>
@@ -3057,16 +3090,16 @@
         <v>141</v>
       </c>
       <c r="B76" t="s">
-        <v>181</v>
-      </c>
-      <c r="C76" t="s">
-        <v>145</v>
+        <v>177</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E76">
-        <v>17</v>
+      <c r="E76" s="23" t="s">
+        <v>297</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>19</v>
@@ -3079,14 +3112,14 @@
       <c r="B77" t="s">
         <v>44</v>
       </c>
-      <c r="C77" t="s">
-        <v>106</v>
+      <c r="C77" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E77">
-        <v>4</v>
+      <c r="E77" s="23" t="s">
+        <v>289</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>41</v>
@@ -3097,19 +3130,19 @@
         <v>172</v>
       </c>
       <c r="B78" t="s">
-        <v>182</v>
-      </c>
-      <c r="C78" t="s">
-        <v>145</v>
+        <v>178</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E78">
-        <v>16</v>
+      <c r="E78" s="23" t="s">
+        <v>298</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
@@ -3117,19 +3150,19 @@
         <v>502</v>
       </c>
       <c r="B79" t="s">
-        <v>203</v>
-      </c>
-      <c r="C79" t="s">
-        <v>266</v>
+        <v>199</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>293</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E79">
-        <v>19</v>
+        <v>132</v>
+      </c>
+      <c r="E79" s="23" t="s">
+        <v>307</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
@@ -3137,19 +3170,19 @@
         <v>409</v>
       </c>
       <c r="B80" t="s">
-        <v>124</v>
-      </c>
-      <c r="C80" t="s">
-        <v>244</v>
+        <v>122</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E80">
-        <v>15</v>
+      <c r="E80" s="23" t="s">
+        <v>305</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
@@ -3157,16 +3190,16 @@
         <v>109</v>
       </c>
       <c r="B81" t="s">
-        <v>183</v>
-      </c>
-      <c r="C81" t="s">
-        <v>145</v>
+        <v>179</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E81">
-        <v>17</v>
+      <c r="E81" s="23" t="s">
+        <v>297</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>19</v>
@@ -3177,16 +3210,16 @@
         <v>110</v>
       </c>
       <c r="B82" t="s">
-        <v>166</v>
-      </c>
-      <c r="C82" t="s">
-        <v>145</v>
+        <v>162</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E82">
-        <v>17</v>
+      <c r="E82" s="23" t="s">
+        <v>297</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>19</v>
@@ -3199,14 +3232,14 @@
       <c r="B83" t="s">
         <v>10</v>
       </c>
-      <c r="C83" t="s">
-        <v>106</v>
+      <c r="C83" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E83">
-        <v>1</v>
+      <c r="E83" s="23" t="s">
+        <v>291</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>7</v>
@@ -3219,14 +3252,14 @@
       <c r="B84" t="s">
         <v>28</v>
       </c>
-      <c r="C84" t="s">
-        <v>106</v>
+      <c r="C84" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E84">
-        <v>3</v>
+      <c r="E84" s="23" t="s">
+        <v>304</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>24</v>
@@ -3237,19 +3270,19 @@
         <v>139</v>
       </c>
       <c r="B85" t="s">
-        <v>113</v>
-      </c>
-      <c r="C85" t="s">
-        <v>145</v>
+        <v>111</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E85">
-        <v>16</v>
+      <c r="E85" s="23" t="s">
+        <v>298</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
@@ -3259,14 +3292,14 @@
       <c r="B86" t="s">
         <v>29</v>
       </c>
-      <c r="C86" t="s">
-        <v>106</v>
+      <c r="C86" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E86">
-        <v>3</v>
+      <c r="E86" s="23" t="s">
+        <v>304</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>24</v>
@@ -3277,16 +3310,16 @@
         <v>174</v>
       </c>
       <c r="B87" t="s">
-        <v>153</v>
-      </c>
-      <c r="C87" t="s">
-        <v>145</v>
+        <v>149</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E87">
-        <v>17</v>
+      <c r="E87" s="23" t="s">
+        <v>297</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>19</v>
@@ -3297,16 +3330,16 @@
         <v>111</v>
       </c>
       <c r="B88" t="s">
-        <v>154</v>
-      </c>
-      <c r="C88" t="s">
-        <v>145</v>
+        <v>150</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E88">
-        <v>17</v>
+      <c r="E88" s="23" t="s">
+        <v>297</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>19</v>
@@ -3317,16 +3350,16 @@
         <v>318</v>
       </c>
       <c r="B89" t="s">
-        <v>229</v>
-      </c>
-      <c r="C89" t="s">
-        <v>110</v>
+        <v>224</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E89">
-        <v>9</v>
+      <c r="E89" s="23" t="s">
+        <v>301</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>91</v>
@@ -3339,14 +3372,14 @@
       <c r="B90" t="s">
         <v>73</v>
       </c>
-      <c r="C90" t="s">
-        <v>110</v>
+      <c r="C90" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E90">
-        <v>7</v>
+      <c r="E90" s="23" t="s">
+        <v>299</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>72</v>
@@ -3357,16 +3390,16 @@
         <v>383</v>
       </c>
       <c r="B91" t="s">
-        <v>268</v>
-      </c>
-      <c r="C91" t="s">
-        <v>110</v>
+        <v>261</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E91">
-        <v>9</v>
+      <c r="E91" s="23" t="s">
+        <v>301</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>91</v>
@@ -3377,16 +3410,16 @@
         <v>394</v>
       </c>
       <c r="B92" t="s">
-        <v>269</v>
-      </c>
-      <c r="C92" t="s">
-        <v>110</v>
+        <v>262</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E92">
-        <v>8</v>
+      <c r="E92" s="23" t="s">
+        <v>300</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>78</v>
@@ -3397,19 +3430,19 @@
         <v>454</v>
       </c>
       <c r="B93" t="s">
-        <v>208</v>
-      </c>
-      <c r="C93" t="s">
-        <v>266</v>
+        <v>203</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>293</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E93">
-        <v>20</v>
+        <v>132</v>
+      </c>
+      <c r="E93" s="23" t="s">
+        <v>308</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
@@ -3419,14 +3452,14 @@
       <c r="B94" t="s">
         <v>67</v>
       </c>
-      <c r="C94" t="s">
-        <v>110</v>
+      <c r="C94" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E94">
-        <v>6</v>
+      <c r="E94" s="23" t="s">
+        <v>293</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>64</v>
@@ -3437,19 +3470,19 @@
         <v>170</v>
       </c>
       <c r="B95" t="s">
-        <v>270</v>
-      </c>
-      <c r="C95" t="s">
-        <v>145</v>
+        <v>263</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E95">
-        <v>16</v>
+      <c r="E95" s="23" t="s">
+        <v>298</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
@@ -3459,14 +3492,14 @@
       <c r="B96" t="s">
         <v>30</v>
       </c>
-      <c r="C96" t="s">
-        <v>106</v>
+      <c r="C96" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E96">
-        <v>3</v>
+      <c r="E96" s="23" t="s">
+        <v>304</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>24</v>
@@ -3479,14 +3512,14 @@
       <c r="B97" t="s">
         <v>11</v>
       </c>
-      <c r="C97" t="s">
-        <v>106</v>
+      <c r="C97" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E97">
-        <v>1</v>
+      <c r="E97" s="23" t="s">
+        <v>291</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>7</v>
@@ -3499,14 +3532,14 @@
       <c r="B98" t="s">
         <v>31</v>
       </c>
-      <c r="C98" t="s">
-        <v>106</v>
+      <c r="C98" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E98">
-        <v>3</v>
+      <c r="E98" s="23" t="s">
+        <v>304</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>24</v>
@@ -3519,14 +3552,14 @@
       <c r="B99" t="s">
         <v>85</v>
       </c>
-      <c r="C99" t="s">
-        <v>110</v>
+      <c r="C99" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E99">
-        <v>8</v>
+      <c r="E99" s="23" t="s">
+        <v>300</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>78</v>
@@ -3537,16 +3570,16 @@
         <v>320</v>
       </c>
       <c r="B100" t="s">
-        <v>193</v>
-      </c>
-      <c r="C100" t="s">
-        <v>110</v>
+        <v>189</v>
+      </c>
+      <c r="C100" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E100">
-        <v>9</v>
+      <c r="E100" s="23" t="s">
+        <v>301</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>91</v>
@@ -3559,14 +3592,14 @@
       <c r="B101" t="s">
         <v>68</v>
       </c>
-      <c r="C101" t="s">
-        <v>110</v>
+      <c r="C101" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E101">
-        <v>6</v>
+      <c r="E101" s="23" t="s">
+        <v>293</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>64</v>
@@ -3577,19 +3610,19 @@
         <v>450</v>
       </c>
       <c r="B102" t="s">
-        <v>258</v>
-      </c>
-      <c r="C102" t="s">
-        <v>244</v>
+        <v>252</v>
+      </c>
+      <c r="C102" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E102">
-        <v>14</v>
+      <c r="E102" s="23" t="s">
+        <v>306</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
@@ -3597,16 +3630,16 @@
         <v>112</v>
       </c>
       <c r="B103" t="s">
-        <v>173</v>
-      </c>
-      <c r="C103" t="s">
-        <v>145</v>
+        <v>169</v>
+      </c>
+      <c r="C103" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E103">
-        <v>17</v>
+      <c r="E103" s="23" t="s">
+        <v>297</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>19</v>
@@ -3617,19 +3650,19 @@
         <v>441</v>
       </c>
       <c r="B104" t="s">
-        <v>259</v>
-      </c>
-      <c r="C104" t="s">
-        <v>244</v>
+        <v>253</v>
+      </c>
+      <c r="C104" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E104">
-        <v>13</v>
+      <c r="E104" s="23" t="s">
+        <v>302</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
@@ -3637,19 +3670,19 @@
         <v>173</v>
       </c>
       <c r="B105" t="s">
-        <v>271</v>
-      </c>
-      <c r="C105" t="s">
-        <v>145</v>
+        <v>264</v>
+      </c>
+      <c r="C105" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E105">
-        <v>16</v>
+      <c r="E105" s="23" t="s">
+        <v>298</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
@@ -3657,19 +3690,19 @@
         <v>521</v>
       </c>
       <c r="B106" t="s">
-        <v>138</v>
-      </c>
-      <c r="C106" t="s">
-        <v>266</v>
+        <v>136</v>
+      </c>
+      <c r="C106" s="20" t="s">
+        <v>293</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E106">
-        <v>18</v>
+        <v>132</v>
+      </c>
+      <c r="E106" s="23" t="s">
+        <v>303</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
@@ -3677,16 +3710,16 @@
         <v>380</v>
       </c>
       <c r="B107" t="s">
-        <v>194</v>
-      </c>
-      <c r="C107" t="s">
-        <v>110</v>
+        <v>190</v>
+      </c>
+      <c r="C107" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E107">
-        <v>9</v>
+      <c r="E107" s="23" t="s">
+        <v>301</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>91</v>
@@ -3697,19 +3730,19 @@
         <v>513</v>
       </c>
       <c r="B108" t="s">
-        <v>238</v>
-      </c>
-      <c r="C108" t="s">
-        <v>266</v>
+        <v>233</v>
+      </c>
+      <c r="C108" s="20" t="s">
+        <v>293</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E108">
-        <v>21</v>
+        <v>132</v>
+      </c>
+      <c r="E108" s="23" t="s">
+        <v>309</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
@@ -3717,19 +3750,19 @@
         <v>175</v>
       </c>
       <c r="B109" t="s">
-        <v>291</v>
-      </c>
-      <c r="C109" t="s">
-        <v>145</v>
+        <v>284</v>
+      </c>
+      <c r="C109" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E109">
-        <v>16</v>
+      <c r="E109" s="23" t="s">
+        <v>298</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
@@ -3737,16 +3770,16 @@
         <v>395</v>
       </c>
       <c r="B110" t="s">
-        <v>260</v>
-      </c>
-      <c r="C110" t="s">
-        <v>110</v>
+        <v>254</v>
+      </c>
+      <c r="C110" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E110">
-        <v>8</v>
+      <c r="E110" s="23" t="s">
+        <v>300</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>78</v>
@@ -3757,19 +3790,19 @@
         <v>456</v>
       </c>
       <c r="B111" t="s">
-        <v>250</v>
-      </c>
-      <c r="C111" t="s">
-        <v>266</v>
+        <v>244</v>
+      </c>
+      <c r="C111" s="20" t="s">
+        <v>293</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E111">
-        <v>20</v>
+        <v>132</v>
+      </c>
+      <c r="E111" s="23" t="s">
+        <v>308</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
@@ -3777,19 +3810,19 @@
         <v>440</v>
       </c>
       <c r="B112" t="s">
-        <v>210</v>
-      </c>
-      <c r="C112" t="s">
-        <v>266</v>
+        <v>205</v>
+      </c>
+      <c r="C112" s="20" t="s">
+        <v>293</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E112">
-        <v>20</v>
+        <v>132</v>
+      </c>
+      <c r="E112" s="23" t="s">
+        <v>308</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
@@ -3797,19 +3830,19 @@
         <v>506</v>
       </c>
       <c r="B113" t="s">
-        <v>204</v>
-      </c>
-      <c r="C113" t="s">
-        <v>266</v>
+        <v>200</v>
+      </c>
+      <c r="C113" s="20" t="s">
+        <v>293</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E113">
-        <v>19</v>
+        <v>132</v>
+      </c>
+      <c r="E113" s="23" t="s">
+        <v>307</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
@@ -3817,16 +3850,16 @@
         <v>381</v>
       </c>
       <c r="B114" t="s">
-        <v>141</v>
-      </c>
-      <c r="C114" t="s">
-        <v>110</v>
+        <v>139</v>
+      </c>
+      <c r="C114" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E114">
-        <v>9</v>
+      <c r="E114" s="23" t="s">
+        <v>301</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>91</v>
@@ -3837,16 +3870,16 @@
         <v>393</v>
       </c>
       <c r="B115" t="s">
-        <v>230</v>
-      </c>
-      <c r="C115" t="s">
-        <v>110</v>
+        <v>225</v>
+      </c>
+      <c r="C115" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E115">
-        <v>9</v>
+      <c r="E115" s="23" t="s">
+        <v>301</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>91</v>
@@ -3857,16 +3890,16 @@
         <v>382</v>
       </c>
       <c r="B116" t="s">
-        <v>231</v>
-      </c>
-      <c r="C116" t="s">
-        <v>110</v>
+        <v>226</v>
+      </c>
+      <c r="C116" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E116">
-        <v>9</v>
+      <c r="E116" s="23" t="s">
+        <v>301</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>91</v>
@@ -3879,14 +3912,14 @@
       <c r="B117" t="s">
         <v>99</v>
       </c>
-      <c r="C117" t="s">
-        <v>244</v>
+      <c r="C117" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E117">
-        <v>12</v>
+      <c r="E117" s="23" t="s">
+        <v>296</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>100</v>
@@ -3897,19 +3930,19 @@
         <v>411</v>
       </c>
       <c r="B118" t="s">
-        <v>131</v>
-      </c>
-      <c r="C118" t="s">
-        <v>244</v>
+        <v>129</v>
+      </c>
+      <c r="C118" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E118">
-        <v>15</v>
+      <c r="E118" s="23" t="s">
+        <v>305</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
@@ -3919,14 +3952,14 @@
       <c r="B119" t="s">
         <v>101</v>
       </c>
-      <c r="C119" t="s">
-        <v>244</v>
+      <c r="C119" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E119">
-        <v>12</v>
+      <c r="E119" s="23" t="s">
+        <v>296</v>
       </c>
       <c r="F119" s="5" t="s">
         <v>100</v>
@@ -3937,19 +3970,19 @@
         <v>412</v>
       </c>
       <c r="B120" t="s">
-        <v>261</v>
-      </c>
-      <c r="C120" t="s">
-        <v>244</v>
+        <v>255</v>
+      </c>
+      <c r="C120" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E120">
-        <v>13</v>
+      <c r="E120" s="23" t="s">
+        <v>302</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
@@ -3957,16 +3990,16 @@
         <v>113</v>
       </c>
       <c r="B121" t="s">
-        <v>184</v>
-      </c>
-      <c r="C121" t="s">
-        <v>145</v>
+        <v>180</v>
+      </c>
+      <c r="C121" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E121">
-        <v>17</v>
+      <c r="E121" s="23" t="s">
+        <v>297</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>19</v>
@@ -3977,19 +4010,19 @@
         <v>114</v>
       </c>
       <c r="B122" t="s">
-        <v>185</v>
-      </c>
-      <c r="C122" t="s">
-        <v>145</v>
+        <v>181</v>
+      </c>
+      <c r="C122" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E122">
-        <v>16</v>
+      <c r="E122" s="23" t="s">
+        <v>298</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
@@ -3997,19 +4030,19 @@
         <v>414</v>
       </c>
       <c r="B123" t="s">
-        <v>216</v>
-      </c>
-      <c r="C123" t="s">
-        <v>244</v>
+        <v>211</v>
+      </c>
+      <c r="C123" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E123">
-        <v>13</v>
+      <c r="E123" s="23" t="s">
+        <v>302</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
@@ -4017,16 +4050,16 @@
         <v>115</v>
       </c>
       <c r="B124" t="s">
-        <v>155</v>
-      </c>
-      <c r="C124" t="s">
-        <v>145</v>
+        <v>151</v>
+      </c>
+      <c r="C124" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E124">
-        <v>17</v>
+      <c r="E124" s="23" t="s">
+        <v>297</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>19</v>
@@ -4037,16 +4070,16 @@
         <v>322</v>
       </c>
       <c r="B125" t="s">
-        <v>195</v>
-      </c>
-      <c r="C125" t="s">
-        <v>110</v>
+        <v>191</v>
+      </c>
+      <c r="C125" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E125">
-        <v>9</v>
+      <c r="E125" s="23" t="s">
+        <v>301</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>91</v>
@@ -4057,19 +4090,19 @@
         <v>415</v>
       </c>
       <c r="B126" t="s">
-        <v>117</v>
-      </c>
-      <c r="C126" t="s">
-        <v>244</v>
+        <v>115</v>
+      </c>
+      <c r="C126" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E126">
-        <v>14</v>
+      <c r="E126" s="23" t="s">
+        <v>306</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
@@ -4077,19 +4110,19 @@
         <v>176</v>
       </c>
       <c r="B127" t="s">
-        <v>272</v>
-      </c>
-      <c r="C127" t="s">
-        <v>145</v>
+        <v>265</v>
+      </c>
+      <c r="C127" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E127">
-        <v>16</v>
+      <c r="E127" s="23" t="s">
+        <v>298</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
@@ -4097,19 +4130,19 @@
         <v>416</v>
       </c>
       <c r="B128" t="s">
-        <v>217</v>
-      </c>
-      <c r="C128" t="s">
-        <v>244</v>
+        <v>212</v>
+      </c>
+      <c r="C128" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E128">
-        <v>13</v>
+      <c r="E128" s="23" t="s">
+        <v>302</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
@@ -4119,14 +4152,14 @@
       <c r="B129" t="s">
         <v>92</v>
       </c>
-      <c r="C129" t="s">
-        <v>244</v>
+      <c r="C129" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E129">
-        <v>11</v>
+      <c r="E129" s="23" t="s">
+        <v>310</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>94</v>
@@ -4139,14 +4172,14 @@
       <c r="B130" t="s">
         <v>45</v>
       </c>
-      <c r="C130" t="s">
-        <v>106</v>
+      <c r="C130" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E130">
-        <v>4</v>
+      <c r="E130" s="23" t="s">
+        <v>289</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>41</v>
@@ -4159,14 +4192,14 @@
       <c r="B131" t="s">
         <v>95</v>
       </c>
-      <c r="C131" t="s">
-        <v>244</v>
+      <c r="C131" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E131">
-        <v>11</v>
+      <c r="E131" s="23" t="s">
+        <v>310</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>94</v>
@@ -4177,39 +4210,39 @@
         <v>514</v>
       </c>
       <c r="B132" t="s">
-        <v>211</v>
-      </c>
-      <c r="C132" t="s">
-        <v>266</v>
+        <v>206</v>
+      </c>
+      <c r="C132" s="20" t="s">
+        <v>293</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E132">
-        <v>20</v>
+        <v>132</v>
+      </c>
+      <c r="E132" s="23" t="s">
+        <v>308</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="9" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B133" t="s">
-        <v>293</v>
-      </c>
-      <c r="C133" t="s">
-        <v>145</v>
+        <v>286</v>
+      </c>
+      <c r="C133" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E133">
-        <v>16</v>
+      <c r="E133" s="23" t="s">
+        <v>298</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
@@ -4217,19 +4250,19 @@
         <v>418</v>
       </c>
       <c r="B134" t="s">
-        <v>218</v>
-      </c>
-      <c r="C134" t="s">
-        <v>244</v>
+        <v>213</v>
+      </c>
+      <c r="C134" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E134">
-        <v>13</v>
+      <c r="E134" s="23" t="s">
+        <v>302</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
@@ -4237,19 +4270,19 @@
         <v>419</v>
       </c>
       <c r="B135" t="s">
-        <v>125</v>
-      </c>
-      <c r="C135" t="s">
-        <v>244</v>
+        <v>123</v>
+      </c>
+      <c r="C135" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E135">
-        <v>15</v>
+      <c r="E135" s="23" t="s">
+        <v>305</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
@@ -4259,14 +4292,14 @@
       <c r="B136" t="s">
         <v>20</v>
       </c>
-      <c r="C136" t="s">
-        <v>106</v>
+      <c r="C136" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E136">
-        <v>2</v>
+      <c r="E136" s="23" t="s">
+        <v>292</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>17</v>
@@ -4277,16 +4310,16 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>186</v>
-      </c>
-      <c r="C137" t="s">
-        <v>145</v>
+        <v>182</v>
+      </c>
+      <c r="C137" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E137">
-        <v>17</v>
+      <c r="E137" s="23" t="s">
+        <v>297</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>19</v>
@@ -4297,19 +4330,19 @@
         <v>420</v>
       </c>
       <c r="B138" t="s">
-        <v>219</v>
-      </c>
-      <c r="C138" t="s">
-        <v>244</v>
+        <v>214</v>
+      </c>
+      <c r="C138" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E138">
-        <v>13</v>
+      <c r="E138" s="23" t="s">
+        <v>302</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
@@ -4319,14 +4352,14 @@
       <c r="B139" t="s">
         <v>32</v>
       </c>
-      <c r="C139" t="s">
-        <v>106</v>
+      <c r="C139" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E139">
-        <v>3</v>
+      <c r="E139" s="23" t="s">
+        <v>304</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>24</v>
@@ -4339,14 +4372,14 @@
       <c r="B140" t="s">
         <v>59</v>
       </c>
-      <c r="C140" t="s">
-        <v>106</v>
+      <c r="C140" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E140">
-        <v>5</v>
+      <c r="E140" s="23" t="s">
+        <v>290</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>58</v>
@@ -4357,19 +4390,19 @@
         <v>116</v>
       </c>
       <c r="B141" t="s">
-        <v>167</v>
-      </c>
-      <c r="C141" t="s">
-        <v>145</v>
+        <v>163</v>
+      </c>
+      <c r="C141" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E141">
-        <v>16</v>
+      <c r="E141" s="23" t="s">
+        <v>298</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
@@ -4377,16 +4410,16 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>187</v>
-      </c>
-      <c r="C142" t="s">
-        <v>145</v>
+        <v>183</v>
+      </c>
+      <c r="C142" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E142">
-        <v>17</v>
+      <c r="E142" s="23" t="s">
+        <v>297</v>
       </c>
       <c r="F142" s="5" t="s">
         <v>19</v>
@@ -4397,16 +4430,16 @@
         <v>117</v>
       </c>
       <c r="B143" t="s">
-        <v>168</v>
-      </c>
-      <c r="C143" t="s">
-        <v>145</v>
+        <v>164</v>
+      </c>
+      <c r="C143" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E143">
-        <v>17</v>
+      <c r="E143" s="23" t="s">
+        <v>297</v>
       </c>
       <c r="F143" s="5" t="s">
         <v>19</v>
@@ -4417,19 +4450,19 @@
         <v>455</v>
       </c>
       <c r="B144" t="s">
-        <v>262</v>
-      </c>
-      <c r="C144" t="s">
-        <v>244</v>
+        <v>256</v>
+      </c>
+      <c r="C144" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E144">
-        <v>14</v>
+      <c r="E144" s="23" t="s">
+        <v>306</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
@@ -4437,19 +4470,19 @@
         <v>156</v>
       </c>
       <c r="B145" t="s">
-        <v>156</v>
-      </c>
-      <c r="C145" t="s">
-        <v>145</v>
+        <v>152</v>
+      </c>
+      <c r="C145" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E145">
-        <v>16</v>
+      <c r="E145" s="23" t="s">
+        <v>298</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
@@ -4459,14 +4492,14 @@
       <c r="B146" t="s">
         <v>46</v>
       </c>
-      <c r="C146" t="s">
-        <v>106</v>
+      <c r="C146" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E146">
-        <v>4</v>
+      <c r="E146" s="23" t="s">
+        <v>289</v>
       </c>
       <c r="F146" s="5" t="s">
         <v>41</v>
@@ -4477,19 +4510,19 @@
         <v>421</v>
       </c>
       <c r="B147" t="s">
-        <v>126</v>
-      </c>
-      <c r="C147" t="s">
-        <v>244</v>
+        <v>124</v>
+      </c>
+      <c r="C147" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="D147" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E147">
-        <v>15</v>
+      <c r="E147" s="23" t="s">
+        <v>305</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
@@ -4499,14 +4532,14 @@
       <c r="B148" t="s">
         <v>47</v>
       </c>
-      <c r="C148" t="s">
-        <v>106</v>
+      <c r="C148" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E148">
-        <v>4</v>
+      <c r="E148" s="23" t="s">
+        <v>289</v>
       </c>
       <c r="F148" s="5" t="s">
         <v>41</v>
@@ -4519,14 +4552,14 @@
       <c r="B149" t="s">
         <v>102</v>
       </c>
-      <c r="C149" t="s">
-        <v>244</v>
+      <c r="C149" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="D149" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E149">
-        <v>12</v>
+      <c r="E149" s="23" t="s">
+        <v>296</v>
       </c>
       <c r="F149" s="5" t="s">
         <v>100</v>
@@ -4539,14 +4572,14 @@
       <c r="B150" t="s">
         <v>33</v>
       </c>
-      <c r="C150" t="s">
-        <v>106</v>
+      <c r="C150" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D150" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E150">
-        <v>3</v>
+      <c r="E150" s="23" t="s">
+        <v>304</v>
       </c>
       <c r="F150" s="5" t="s">
         <v>24</v>
@@ -4557,16 +4590,16 @@
         <v>118</v>
       </c>
       <c r="B151" t="s">
-        <v>157</v>
-      </c>
-      <c r="C151" t="s">
-        <v>145</v>
+        <v>153</v>
+      </c>
+      <c r="C151" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D151" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E151">
-        <v>17</v>
+      <c r="E151" s="23" t="s">
+        <v>297</v>
       </c>
       <c r="F151" s="5" t="s">
         <v>19</v>
@@ -4577,16 +4610,16 @@
         <v>228</v>
       </c>
       <c r="B152" t="s">
-        <v>263</v>
-      </c>
-      <c r="C152" t="s">
-        <v>106</v>
+        <v>257</v>
+      </c>
+      <c r="C152" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E152">
-        <v>5</v>
+      <c r="E152" s="23" t="s">
+        <v>290</v>
       </c>
       <c r="F152" s="5" t="s">
         <v>58</v>
@@ -4597,16 +4630,16 @@
         <v>386</v>
       </c>
       <c r="B153" t="s">
-        <v>273</v>
-      </c>
-      <c r="C153" t="s">
-        <v>110</v>
+        <v>266</v>
+      </c>
+      <c r="C153" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E153">
-        <v>9</v>
+      <c r="E153" s="23" t="s">
+        <v>301</v>
       </c>
       <c r="F153" s="5" t="s">
         <v>91</v>
@@ -4619,14 +4652,14 @@
       <c r="B154" t="s">
         <v>48</v>
       </c>
-      <c r="C154" t="s">
-        <v>106</v>
+      <c r="C154" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E154">
-        <v>4</v>
+      <c r="E154" s="23" t="s">
+        <v>289</v>
       </c>
       <c r="F154" s="5" t="s">
         <v>41</v>
@@ -4639,14 +4672,14 @@
       <c r="B155" t="s">
         <v>34</v>
       </c>
-      <c r="C155" t="s">
-        <v>106</v>
+      <c r="C155" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D155" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E155">
-        <v>3</v>
+      <c r="E155" s="23" t="s">
+        <v>304</v>
       </c>
       <c r="F155" s="5" t="s">
         <v>24</v>
@@ -4659,14 +4692,14 @@
       <c r="B156" t="s">
         <v>49</v>
       </c>
-      <c r="C156" t="s">
-        <v>145</v>
+      <c r="C156" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E156">
-        <v>17</v>
+      <c r="E156" s="23" t="s">
+        <v>297</v>
       </c>
       <c r="F156" s="5" t="s">
         <v>19</v>
@@ -4679,14 +4712,14 @@
       <c r="B157" t="s">
         <v>74</v>
       </c>
-      <c r="C157" t="s">
-        <v>110</v>
+      <c r="C157" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D157" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E157">
-        <v>6</v>
+      <c r="E157" s="23" t="s">
+        <v>293</v>
       </c>
       <c r="F157" s="5" t="s">
         <v>64</v>
@@ -4697,19 +4730,19 @@
         <v>511</v>
       </c>
       <c r="B158" t="s">
-        <v>209</v>
-      </c>
-      <c r="C158" t="s">
-        <v>266</v>
+        <v>204</v>
+      </c>
+      <c r="C158" s="20" t="s">
+        <v>293</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E158">
-        <v>20</v>
+        <v>132</v>
+      </c>
+      <c r="E158" s="23" t="s">
+        <v>308</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
@@ -4719,14 +4752,14 @@
       <c r="B159" t="s">
         <v>50</v>
       </c>
-      <c r="C159" t="s">
-        <v>106</v>
+      <c r="C159" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D159" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E159">
-        <v>4</v>
+      <c r="E159" s="23" t="s">
+        <v>289</v>
       </c>
       <c r="F159" s="5" t="s">
         <v>41</v>
@@ -4737,19 +4770,19 @@
         <v>137</v>
       </c>
       <c r="B160" t="s">
-        <v>174</v>
-      </c>
-      <c r="C160" t="s">
-        <v>145</v>
+        <v>170</v>
+      </c>
+      <c r="C160" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D160" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E160">
-        <v>16</v>
+      <c r="E160" s="23" t="s">
+        <v>298</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
@@ -4757,19 +4790,19 @@
         <v>119</v>
       </c>
       <c r="B161" t="s">
-        <v>274</v>
-      </c>
-      <c r="C161" t="s">
-        <v>145</v>
+        <v>267</v>
+      </c>
+      <c r="C161" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D161" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E161">
-        <v>16</v>
+      <c r="E161" s="23" t="s">
+        <v>298</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
@@ -4777,19 +4810,19 @@
         <v>423</v>
       </c>
       <c r="B162" t="s">
-        <v>118</v>
-      </c>
-      <c r="C162" t="s">
-        <v>244</v>
+        <v>116</v>
+      </c>
+      <c r="C162" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="D162" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E162">
-        <v>14</v>
+      <c r="E162" s="23" t="s">
+        <v>306</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
@@ -4797,19 +4830,19 @@
         <v>158</v>
       </c>
       <c r="B163" t="s">
-        <v>158</v>
-      </c>
-      <c r="C163" t="s">
-        <v>145</v>
+        <v>154</v>
+      </c>
+      <c r="C163" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D163" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E163">
-        <v>16</v>
+      <c r="E163" s="23" t="s">
+        <v>298</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
@@ -4817,16 +4850,16 @@
         <v>387</v>
       </c>
       <c r="B164" t="s">
-        <v>232</v>
-      </c>
-      <c r="C164" t="s">
-        <v>110</v>
+        <v>227</v>
+      </c>
+      <c r="C164" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D164" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E164">
-        <v>9</v>
+      <c r="E164" s="23" t="s">
+        <v>301</v>
       </c>
       <c r="F164" s="5" t="s">
         <v>91</v>
@@ -4837,19 +4870,19 @@
         <v>405</v>
       </c>
       <c r="B165" t="s">
-        <v>127</v>
-      </c>
-      <c r="C165" t="s">
-        <v>244</v>
+        <v>125</v>
+      </c>
+      <c r="C165" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="D165" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E165">
-        <v>15</v>
+      <c r="E165" s="23" t="s">
+        <v>305</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
@@ -4859,14 +4892,14 @@
       <c r="B166" t="s">
         <v>21</v>
       </c>
-      <c r="C166" t="s">
-        <v>106</v>
+      <c r="C166" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E166">
-        <v>2</v>
+      <c r="E166" s="23" t="s">
+        <v>292</v>
       </c>
       <c r="F166" s="5" t="s">
         <v>17</v>
@@ -4877,19 +4910,19 @@
         <v>515</v>
       </c>
       <c r="B167" t="s">
-        <v>212</v>
-      </c>
-      <c r="C167" t="s">
-        <v>266</v>
+        <v>207</v>
+      </c>
+      <c r="C167" s="20" t="s">
+        <v>293</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E167">
-        <v>20</v>
+        <v>132</v>
+      </c>
+      <c r="E167" s="23" t="s">
+        <v>308</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
@@ -4899,14 +4932,14 @@
       <c r="B168" t="s">
         <v>103</v>
       </c>
-      <c r="C168" t="s">
-        <v>244</v>
+      <c r="C168" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="D168" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E168">
-        <v>12</v>
+      <c r="E168" s="23" t="s">
+        <v>296</v>
       </c>
       <c r="F168" s="5" t="s">
         <v>100</v>
@@ -4919,14 +4952,14 @@
       <c r="B169" t="s">
         <v>69</v>
       </c>
-      <c r="C169" t="s">
-        <v>110</v>
+      <c r="C169" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D169" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E169">
-        <v>6</v>
+      <c r="E169" s="23" t="s">
+        <v>293</v>
       </c>
       <c r="F169" s="5" t="s">
         <v>64</v>
@@ -4939,14 +4972,14 @@
       <c r="B170" t="s">
         <v>35</v>
       </c>
-      <c r="C170" t="s">
-        <v>106</v>
+      <c r="C170" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D170" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E170">
-        <v>3</v>
+      <c r="E170" s="23" t="s">
+        <v>304</v>
       </c>
       <c r="F170" s="5" t="s">
         <v>24</v>
@@ -4959,14 +4992,14 @@
       <c r="B171" t="s">
         <v>36</v>
       </c>
-      <c r="C171" t="s">
-        <v>106</v>
+      <c r="C171" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D171" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E171">
-        <v>3</v>
+      <c r="E171" s="23" t="s">
+        <v>304</v>
       </c>
       <c r="F171" s="5" t="s">
         <v>24</v>
@@ -4977,19 +5010,19 @@
         <v>523</v>
       </c>
       <c r="B172" t="s">
-        <v>240</v>
-      </c>
-      <c r="C172" t="s">
-        <v>266</v>
+        <v>235</v>
+      </c>
+      <c r="C172" s="20" t="s">
+        <v>293</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E172">
-        <v>21</v>
+        <v>132</v>
+      </c>
+      <c r="E172" s="23" t="s">
+        <v>309</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
@@ -4997,19 +5030,19 @@
         <v>120</v>
       </c>
       <c r="B173" t="s">
-        <v>188</v>
-      </c>
-      <c r="C173" t="s">
-        <v>145</v>
+        <v>184</v>
+      </c>
+      <c r="C173" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D173" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E173">
-        <v>16</v>
+      <c r="E173" s="23" t="s">
+        <v>298</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
@@ -5017,19 +5050,19 @@
         <v>526</v>
       </c>
       <c r="B174" t="s">
-        <v>206</v>
-      </c>
-      <c r="C174" t="s">
-        <v>266</v>
+        <v>201</v>
+      </c>
+      <c r="C174" s="20" t="s">
+        <v>293</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E174">
-        <v>19</v>
+        <v>132</v>
+      </c>
+      <c r="E174" s="23" t="s">
+        <v>307</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
@@ -5037,19 +5070,19 @@
         <v>504</v>
       </c>
       <c r="B175" t="s">
-        <v>139</v>
-      </c>
-      <c r="C175" t="s">
-        <v>266</v>
+        <v>137</v>
+      </c>
+      <c r="C175" s="20" t="s">
+        <v>293</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E175">
-        <v>18</v>
+        <v>132</v>
+      </c>
+      <c r="E175" s="23" t="s">
+        <v>303</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
@@ -5057,19 +5090,19 @@
         <v>425</v>
       </c>
       <c r="B176" t="s">
-        <v>220</v>
-      </c>
-      <c r="C176" t="s">
-        <v>244</v>
+        <v>215</v>
+      </c>
+      <c r="C176" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="D176" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E176">
-        <v>13</v>
+      <c r="E176" s="23" t="s">
+        <v>302</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
@@ -5077,16 +5110,16 @@
         <v>121</v>
       </c>
       <c r="B177" t="s">
-        <v>169</v>
-      </c>
-      <c r="C177" t="s">
-        <v>145</v>
+        <v>165</v>
+      </c>
+      <c r="C177" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D177" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E177">
-        <v>17</v>
+      <c r="E177" s="23" t="s">
+        <v>297</v>
       </c>
       <c r="F177" s="5" t="s">
         <v>19</v>
@@ -5099,14 +5132,14 @@
       <c r="B178" t="s">
         <v>104</v>
       </c>
-      <c r="C178" t="s">
-        <v>244</v>
+      <c r="C178" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="D178" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E178">
-        <v>12</v>
+      <c r="E178" s="23" t="s">
+        <v>296</v>
       </c>
       <c r="F178" s="5" t="s">
         <v>100</v>
@@ -5117,19 +5150,19 @@
         <v>516</v>
       </c>
       <c r="B179" t="s">
-        <v>213</v>
-      </c>
-      <c r="C179" t="s">
-        <v>266</v>
+        <v>208</v>
+      </c>
+      <c r="C179" s="20" t="s">
+        <v>293</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E179">
-        <v>20</v>
+        <v>132</v>
+      </c>
+      <c r="E179" s="23" t="s">
+        <v>308</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
@@ -5139,14 +5172,14 @@
       <c r="B180" t="s">
         <v>70</v>
       </c>
-      <c r="C180" t="s">
-        <v>110</v>
+      <c r="C180" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D180" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E180">
-        <v>6</v>
+      <c r="E180" s="23" t="s">
+        <v>293</v>
       </c>
       <c r="F180" s="5" t="s">
         <v>64</v>
@@ -5157,19 +5190,19 @@
         <v>505</v>
       </c>
       <c r="B181" t="s">
+        <v>131</v>
+      </c>
+      <c r="C181" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E181" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="F181" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="C181" t="s">
-        <v>266</v>
-      </c>
-      <c r="D181" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E181">
-        <v>19</v>
-      </c>
-      <c r="F181" s="5" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
@@ -5179,14 +5212,14 @@
       <c r="B182" t="s">
         <v>79</v>
       </c>
-      <c r="C182" t="s">
-        <v>110</v>
+      <c r="C182" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D182" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E182">
-        <v>8</v>
+      <c r="E182" s="23" t="s">
+        <v>300</v>
       </c>
       <c r="F182" s="5" t="s">
         <v>78</v>
@@ -5199,14 +5232,14 @@
       <c r="B183" t="s">
         <v>87</v>
       </c>
-      <c r="C183" t="s">
-        <v>110</v>
+      <c r="C183" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D183" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E183">
-        <v>8</v>
+      <c r="E183" s="23" t="s">
+        <v>300</v>
       </c>
       <c r="F183" s="5" t="s">
         <v>78</v>
@@ -5217,19 +5250,19 @@
         <v>524</v>
       </c>
       <c r="B184" t="s">
-        <v>241</v>
-      </c>
-      <c r="C184" t="s">
-        <v>266</v>
+        <v>236</v>
+      </c>
+      <c r="C184" s="20" t="s">
+        <v>293</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E184">
-        <v>21</v>
+        <v>132</v>
+      </c>
+      <c r="E184" s="23" t="s">
+        <v>309</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
@@ -5237,19 +5270,19 @@
         <v>520</v>
       </c>
       <c r="B185" t="s">
-        <v>242</v>
-      </c>
-      <c r="C185" t="s">
-        <v>266</v>
+        <v>237</v>
+      </c>
+      <c r="C185" s="20" t="s">
+        <v>293</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E185">
-        <v>21</v>
+        <v>132</v>
+      </c>
+      <c r="E185" s="23" t="s">
+        <v>309</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
@@ -5257,16 +5290,16 @@
         <v>122</v>
       </c>
       <c r="B186" t="s">
-        <v>175</v>
-      </c>
-      <c r="C186" t="s">
-        <v>145</v>
+        <v>171</v>
+      </c>
+      <c r="C186" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D186" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E186">
-        <v>17</v>
+      <c r="E186" s="23" t="s">
+        <v>297</v>
       </c>
       <c r="F186" s="5" t="s">
         <v>19</v>
@@ -5277,16 +5310,16 @@
         <v>123</v>
       </c>
       <c r="B187" t="s">
-        <v>159</v>
-      </c>
-      <c r="C187" t="s">
-        <v>145</v>
+        <v>155</v>
+      </c>
+      <c r="C187" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D187" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E187">
-        <v>17</v>
+      <c r="E187" s="23" t="s">
+        <v>297</v>
       </c>
       <c r="F187" s="5" t="s">
         <v>19</v>
@@ -5297,16 +5330,16 @@
         <v>390</v>
       </c>
       <c r="B188" t="s">
-        <v>275</v>
-      </c>
-      <c r="C188" t="s">
-        <v>110</v>
+        <v>268</v>
+      </c>
+      <c r="C188" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D188" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E188">
-        <v>9</v>
+      <c r="E188" s="23" t="s">
+        <v>301</v>
       </c>
       <c r="F188" s="5" t="s">
         <v>91</v>
@@ -5317,19 +5350,19 @@
         <v>427</v>
       </c>
       <c r="B189" t="s">
-        <v>224</v>
-      </c>
-      <c r="C189" t="s">
-        <v>244</v>
+        <v>219</v>
+      </c>
+      <c r="C189" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="D189" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E189">
-        <v>13</v>
+      <c r="E189" s="23" t="s">
+        <v>302</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
@@ -5337,16 +5370,16 @@
         <v>125</v>
       </c>
       <c r="B190" t="s">
-        <v>189</v>
-      </c>
-      <c r="C190" t="s">
-        <v>145</v>
+        <v>185</v>
+      </c>
+      <c r="C190" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D190" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E190">
-        <v>17</v>
+      <c r="E190" s="23" t="s">
+        <v>297</v>
       </c>
       <c r="F190" s="5" t="s">
         <v>19</v>
@@ -5359,14 +5392,14 @@
       <c r="B191" t="s">
         <v>12</v>
       </c>
-      <c r="C191" t="s">
-        <v>106</v>
+      <c r="C191" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D191" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E191">
-        <v>1</v>
+      <c r="E191" s="23" t="s">
+        <v>291</v>
       </c>
       <c r="F191" s="5" t="s">
         <v>7</v>
@@ -5379,14 +5412,14 @@
       <c r="B192" t="s">
         <v>13</v>
       </c>
-      <c r="C192" t="s">
-        <v>106</v>
+      <c r="C192" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D192" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E192">
-        <v>1</v>
+      <c r="E192" s="23" t="s">
+        <v>291</v>
       </c>
       <c r="F192" s="5" t="s">
         <v>7</v>
@@ -5397,16 +5430,16 @@
         <v>326</v>
       </c>
       <c r="B193" t="s">
-        <v>196</v>
-      </c>
-      <c r="C193" t="s">
-        <v>110</v>
+        <v>192</v>
+      </c>
+      <c r="C193" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D193" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E193">
-        <v>9</v>
+      <c r="E193" s="23" t="s">
+        <v>301</v>
       </c>
       <c r="F193" s="5" t="s">
         <v>91</v>
@@ -5417,16 +5450,16 @@
         <v>261</v>
       </c>
       <c r="B194" t="s">
-        <v>276</v>
-      </c>
-      <c r="C194" t="s">
-        <v>106</v>
+        <v>269</v>
+      </c>
+      <c r="C194" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D194" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E194">
-        <v>4</v>
+      <c r="E194" s="23" t="s">
+        <v>289</v>
       </c>
       <c r="F194" s="5" t="s">
         <v>41</v>
@@ -5437,16 +5470,16 @@
         <v>128</v>
       </c>
       <c r="B195" t="s">
-        <v>176</v>
-      </c>
-      <c r="C195" t="s">
-        <v>145</v>
+        <v>172</v>
+      </c>
+      <c r="C195" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D195" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E195">
-        <v>17</v>
+      <c r="E195" s="23" t="s">
+        <v>297</v>
       </c>
       <c r="F195" s="5" t="s">
         <v>19</v>
@@ -5457,16 +5490,16 @@
         <v>237</v>
       </c>
       <c r="B196" t="s">
-        <v>198</v>
-      </c>
-      <c r="C196" t="s">
-        <v>106</v>
+        <v>194</v>
+      </c>
+      <c r="C196" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D196" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E196">
-        <v>4</v>
+      <c r="E196" s="23" t="s">
+        <v>289</v>
       </c>
       <c r="F196" s="5" t="s">
         <v>41</v>
@@ -5477,19 +5510,19 @@
         <v>154</v>
       </c>
       <c r="B197" t="s">
-        <v>179</v>
-      </c>
-      <c r="C197" t="s">
-        <v>145</v>
+        <v>175</v>
+      </c>
+      <c r="C197" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D197" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E197">
-        <v>16</v>
+      <c r="E197" s="23" t="s">
+        <v>298</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.35">
@@ -5499,14 +5532,14 @@
       <c r="B198" t="s">
         <v>60</v>
       </c>
-      <c r="C198" t="s">
-        <v>106</v>
+      <c r="C198" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D198" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E198">
-        <v>5</v>
+      <c r="E198" s="23" t="s">
+        <v>290</v>
       </c>
       <c r="F198" s="5" t="s">
         <v>58</v>
@@ -5519,14 +5552,14 @@
       <c r="B199" t="s">
         <v>37</v>
       </c>
-      <c r="C199" t="s">
-        <v>106</v>
+      <c r="C199" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D199" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E199">
-        <v>3</v>
+      <c r="E199" s="23" t="s">
+        <v>304</v>
       </c>
       <c r="F199" s="5" t="s">
         <v>24</v>
@@ -5537,16 +5570,16 @@
         <v>329</v>
       </c>
       <c r="B200" t="s">
-        <v>233</v>
-      </c>
-      <c r="C200" t="s">
-        <v>110</v>
+        <v>228</v>
+      </c>
+      <c r="C200" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D200" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E200">
-        <v>9</v>
+      <c r="E200" s="23" t="s">
+        <v>301</v>
       </c>
       <c r="F200" s="5" t="s">
         <v>91</v>
@@ -5557,16 +5590,16 @@
         <v>328</v>
       </c>
       <c r="B201" t="s">
-        <v>234</v>
-      </c>
-      <c r="C201" t="s">
-        <v>110</v>
+        <v>229</v>
+      </c>
+      <c r="C201" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D201" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E201">
-        <v>9</v>
+      <c r="E201" s="23" t="s">
+        <v>301</v>
       </c>
       <c r="F201" s="5" t="s">
         <v>91</v>
@@ -5577,16 +5610,16 @@
         <v>325</v>
       </c>
       <c r="B202" t="s">
-        <v>235</v>
-      </c>
-      <c r="C202" t="s">
-        <v>110</v>
+        <v>230</v>
+      </c>
+      <c r="C202" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D202" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E202">
-        <v>9</v>
+      <c r="E202" s="23" t="s">
+        <v>301</v>
       </c>
       <c r="F202" s="5" t="s">
         <v>91</v>
@@ -5597,16 +5630,16 @@
         <v>389</v>
       </c>
       <c r="B203" t="s">
-        <v>236</v>
-      </c>
-      <c r="C203" t="s">
-        <v>110</v>
+        <v>231</v>
+      </c>
+      <c r="C203" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D203" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E203">
-        <v>9</v>
+      <c r="E203" s="23" t="s">
+        <v>301</v>
       </c>
       <c r="F203" s="5" t="s">
         <v>91</v>
@@ -5617,16 +5650,16 @@
         <v>385</v>
       </c>
       <c r="B204" t="s">
-        <v>277</v>
-      </c>
-      <c r="C204" t="s">
-        <v>110</v>
+        <v>270</v>
+      </c>
+      <c r="C204" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D204" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E204">
-        <v>9</v>
+      <c r="E204" s="23" t="s">
+        <v>301</v>
       </c>
       <c r="F204" s="5" t="s">
         <v>91</v>
@@ -5639,14 +5672,14 @@
       <c r="B205" t="s">
         <v>75</v>
       </c>
-      <c r="C205" t="s">
-        <v>110</v>
+      <c r="C205" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D205" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E205">
-        <v>7</v>
+      <c r="E205" s="23" t="s">
+        <v>299</v>
       </c>
       <c r="F205" s="5" t="s">
         <v>72</v>
@@ -5657,19 +5690,19 @@
         <v>507</v>
       </c>
       <c r="B206" t="s">
-        <v>243</v>
-      </c>
-      <c r="C206" t="s">
-        <v>266</v>
+        <v>238</v>
+      </c>
+      <c r="C206" s="20" t="s">
+        <v>293</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E206">
-        <v>21</v>
+        <v>132</v>
+      </c>
+      <c r="E206" s="23" t="s">
+        <v>309</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.35">
@@ -5677,19 +5710,19 @@
         <v>528</v>
       </c>
       <c r="B207" t="s">
-        <v>245</v>
-      </c>
-      <c r="C207" t="s">
-        <v>266</v>
+        <v>239</v>
+      </c>
+      <c r="C207" s="20" t="s">
+        <v>293</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E207">
-        <v>21</v>
+        <v>132</v>
+      </c>
+      <c r="E207" s="23" t="s">
+        <v>309</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.35">
@@ -5697,19 +5730,19 @@
         <v>129</v>
       </c>
       <c r="B208" t="s">
-        <v>160</v>
-      </c>
-      <c r="C208" t="s">
-        <v>145</v>
+        <v>156</v>
+      </c>
+      <c r="C208" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D208" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E208">
-        <v>16</v>
+      <c r="E208" s="23" t="s">
+        <v>298</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.35">
@@ -5717,19 +5750,19 @@
         <v>130</v>
       </c>
       <c r="B209" t="s">
-        <v>161</v>
-      </c>
-      <c r="C209" t="s">
-        <v>145</v>
+        <v>157</v>
+      </c>
+      <c r="C209" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D209" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E209">
-        <v>16</v>
+      <c r="E209" s="23" t="s">
+        <v>298</v>
       </c>
       <c r="F209" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.35">
@@ -5739,14 +5772,14 @@
       <c r="B210" t="s">
         <v>14</v>
       </c>
-      <c r="C210" t="s">
-        <v>106</v>
+      <c r="C210" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D210" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E210">
-        <v>1</v>
+      <c r="E210" s="23" t="s">
+        <v>291</v>
       </c>
       <c r="F210" s="5" t="s">
         <v>7</v>
@@ -5759,14 +5792,14 @@
       <c r="B211" t="s">
         <v>38</v>
       </c>
-      <c r="C211" t="s">
-        <v>106</v>
+      <c r="C211" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D211" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E211">
-        <v>3</v>
+      <c r="E211" s="23" t="s">
+        <v>304</v>
       </c>
       <c r="F211" s="5" t="s">
         <v>24</v>
@@ -5777,19 +5810,19 @@
         <v>157</v>
       </c>
       <c r="B212" t="s">
-        <v>162</v>
-      </c>
-      <c r="C212" t="s">
-        <v>145</v>
+        <v>158</v>
+      </c>
+      <c r="C212" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D212" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E212">
-        <v>16</v>
+      <c r="E212" s="23" t="s">
+        <v>298</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.35">
@@ -5799,14 +5832,14 @@
       <c r="B213" t="s">
         <v>51</v>
       </c>
-      <c r="C213" t="s">
-        <v>106</v>
+      <c r="C213" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D213" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E213">
-        <v>4</v>
+      <c r="E213" s="23" t="s">
+        <v>289</v>
       </c>
       <c r="F213" s="5" t="s">
         <v>41</v>
@@ -5819,14 +5852,14 @@
       <c r="B214" t="s">
         <v>39</v>
       </c>
-      <c r="C214" t="s">
-        <v>106</v>
+      <c r="C214" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D214" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E214">
-        <v>3</v>
+      <c r="E214" s="23" t="s">
+        <v>304</v>
       </c>
       <c r="F214" s="5" t="s">
         <v>24</v>
@@ -5837,19 +5870,19 @@
         <v>432</v>
       </c>
       <c r="B215" t="s">
-        <v>128</v>
-      </c>
-      <c r="C215" t="s">
-        <v>244</v>
+        <v>126</v>
+      </c>
+      <c r="C215" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="D215" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E215">
-        <v>15</v>
+      <c r="E215" s="23" t="s">
+        <v>305</v>
       </c>
       <c r="F215" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.35">
@@ -5857,16 +5890,16 @@
         <v>353</v>
       </c>
       <c r="B216" t="s">
-        <v>237</v>
-      </c>
-      <c r="C216" t="s">
-        <v>110</v>
+        <v>232</v>
+      </c>
+      <c r="C216" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D216" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E216">
-        <v>9</v>
+      <c r="E216" s="23" t="s">
+        <v>301</v>
       </c>
       <c r="F216" s="5" t="s">
         <v>91</v>
@@ -5877,19 +5910,19 @@
         <v>433</v>
       </c>
       <c r="B217" t="s">
-        <v>221</v>
-      </c>
-      <c r="C217" t="s">
-        <v>244</v>
+        <v>216</v>
+      </c>
+      <c r="C217" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="D217" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E217">
-        <v>13</v>
+      <c r="E217" s="23" t="s">
+        <v>302</v>
       </c>
       <c r="F217" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.35">
@@ -5899,14 +5932,14 @@
       <c r="B218" t="s">
         <v>52</v>
       </c>
-      <c r="C218" t="s">
-        <v>106</v>
+      <c r="C218" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D218" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E218">
-        <v>4</v>
+      <c r="E218" s="23" t="s">
+        <v>289</v>
       </c>
       <c r="F218" s="5" t="s">
         <v>41</v>
@@ -5919,14 +5952,14 @@
       <c r="B219" t="s">
         <v>105</v>
       </c>
-      <c r="C219" t="s">
-        <v>244</v>
+      <c r="C219" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="D219" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E219">
-        <v>12</v>
+      <c r="E219" s="23" t="s">
+        <v>296</v>
       </c>
       <c r="F219" s="5" t="s">
         <v>100</v>
@@ -5939,14 +5972,14 @@
       <c r="B220" t="s">
         <v>22</v>
       </c>
-      <c r="C220" t="s">
-        <v>106</v>
+      <c r="C220" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D220" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E220">
-        <v>2</v>
+      <c r="E220" s="23" t="s">
+        <v>292</v>
       </c>
       <c r="F220" s="5" t="s">
         <v>17</v>
@@ -5957,16 +5990,16 @@
         <v>254</v>
       </c>
       <c r="B221" t="s">
-        <v>264</v>
-      </c>
-      <c r="C221" t="s">
-        <v>106</v>
+        <v>258</v>
+      </c>
+      <c r="C221" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D221" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E221">
-        <v>4</v>
+      <c r="E221" s="23" t="s">
+        <v>289</v>
       </c>
       <c r="F221" s="5" t="s">
         <v>41</v>
@@ -5977,16 +6010,16 @@
         <v>243</v>
       </c>
       <c r="B222" t="s">
-        <v>265</v>
-      </c>
-      <c r="C222" t="s">
-        <v>106</v>
+        <v>259</v>
+      </c>
+      <c r="C222" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D222" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E222">
-        <v>5</v>
+      <c r="E222" s="23" t="s">
+        <v>290</v>
       </c>
       <c r="F222" s="5" t="s">
         <v>58</v>
@@ -5997,16 +6030,16 @@
         <v>131</v>
       </c>
       <c r="B223" t="s">
-        <v>190</v>
-      </c>
-      <c r="C223" t="s">
-        <v>145</v>
+        <v>186</v>
+      </c>
+      <c r="C223" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D223" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E223">
-        <v>17</v>
+      <c r="E223" s="23" t="s">
+        <v>297</v>
       </c>
       <c r="F223" s="5" t="s">
         <v>19</v>
@@ -6017,19 +6050,19 @@
         <v>132</v>
       </c>
       <c r="B224" t="s">
-        <v>170</v>
-      </c>
-      <c r="C224" t="s">
-        <v>145</v>
+        <v>166</v>
+      </c>
+      <c r="C224" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D224" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E224">
-        <v>16</v>
+      <c r="E224" s="23" t="s">
+        <v>298</v>
       </c>
       <c r="F224" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.35">
@@ -6039,14 +6072,14 @@
       <c r="B225" t="s">
         <v>86</v>
       </c>
-      <c r="C225" t="s">
-        <v>110</v>
+      <c r="C225" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D225" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E225">
-        <v>8</v>
+      <c r="E225" s="23" t="s">
+        <v>300</v>
       </c>
       <c r="F225" s="5" t="s">
         <v>78</v>
@@ -6057,19 +6090,19 @@
         <v>171</v>
       </c>
       <c r="B226" t="s">
-        <v>278</v>
-      </c>
-      <c r="C226" t="s">
-        <v>145</v>
+        <v>271</v>
+      </c>
+      <c r="C226" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D226" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E226">
-        <v>16</v>
+      <c r="E226" s="23" t="s">
+        <v>298</v>
       </c>
       <c r="F226" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.35">
@@ -6077,16 +6110,16 @@
         <v>244</v>
       </c>
       <c r="B227" t="s">
-        <v>294</v>
-      </c>
-      <c r="C227" t="s">
-        <v>106</v>
+        <v>287</v>
+      </c>
+      <c r="C227" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D227" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E227">
-        <v>2</v>
+      <c r="E227" s="23" t="s">
+        <v>292</v>
       </c>
       <c r="F227" s="5" t="s">
         <v>17</v>
@@ -6099,14 +6132,14 @@
       <c r="B228" t="s">
         <v>96</v>
       </c>
-      <c r="C228" t="s">
-        <v>244</v>
+      <c r="C228" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="D228" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E228">
-        <v>11</v>
+      <c r="E228" s="23" t="s">
+        <v>310</v>
       </c>
       <c r="F228" s="5" t="s">
         <v>94</v>
@@ -6117,19 +6150,19 @@
         <v>435</v>
       </c>
       <c r="B229" t="s">
-        <v>129</v>
-      </c>
-      <c r="C229" t="s">
-        <v>244</v>
+        <v>127</v>
+      </c>
+      <c r="C229" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="D229" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E229">
-        <v>15</v>
+      <c r="E229" s="23" t="s">
+        <v>305</v>
       </c>
       <c r="F229" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.35">
@@ -6137,19 +6170,19 @@
         <v>438</v>
       </c>
       <c r="B230" t="s">
-        <v>119</v>
-      </c>
-      <c r="C230" t="s">
-        <v>244</v>
+        <v>117</v>
+      </c>
+      <c r="C230" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="D230" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E230">
-        <v>14</v>
+      <c r="E230" s="23" t="s">
+        <v>306</v>
       </c>
       <c r="F230" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.35">
@@ -6159,14 +6192,14 @@
       <c r="B231" t="s">
         <v>53</v>
       </c>
-      <c r="C231" t="s">
-        <v>106</v>
+      <c r="C231" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D231" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E231">
-        <v>4</v>
+      <c r="E231" s="23" t="s">
+        <v>289</v>
       </c>
       <c r="F231" s="5" t="s">
         <v>41</v>
@@ -6177,19 +6210,19 @@
         <v>449</v>
       </c>
       <c r="B232" t="s">
-        <v>295</v>
-      </c>
-      <c r="C232" t="s">
-        <v>244</v>
+        <v>288</v>
+      </c>
+      <c r="C232" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="D232" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E232">
-        <v>13</v>
+      <c r="E232" s="23" t="s">
+        <v>302</v>
       </c>
       <c r="F232" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.35">
@@ -6197,19 +6230,19 @@
         <v>517</v>
       </c>
       <c r="B233" t="s">
-        <v>132</v>
-      </c>
-      <c r="C233" t="s">
-        <v>244</v>
+        <v>130</v>
+      </c>
+      <c r="C233" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="D233" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E233">
-        <v>15</v>
+      <c r="E233" s="23" t="s">
+        <v>305</v>
       </c>
       <c r="F233" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.35">
@@ -6219,14 +6252,14 @@
       <c r="B234" t="s">
         <v>40</v>
       </c>
-      <c r="C234" t="s">
-        <v>106</v>
+      <c r="C234" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D234" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E234">
-        <v>3</v>
+      <c r="E234" s="23" t="s">
+        <v>304</v>
       </c>
       <c r="F234" s="5" t="s">
         <v>24</v>
@@ -6237,19 +6270,19 @@
         <v>525</v>
       </c>
       <c r="B235" t="s">
-        <v>246</v>
-      </c>
-      <c r="C235" t="s">
-        <v>266</v>
+        <v>240</v>
+      </c>
+      <c r="C235" s="20" t="s">
+        <v>293</v>
       </c>
       <c r="D235" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E235">
-        <v>21</v>
+        <v>132</v>
+      </c>
+      <c r="E235" s="23" t="s">
+        <v>309</v>
       </c>
       <c r="F235" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.35">
@@ -6257,19 +6290,19 @@
         <v>508</v>
       </c>
       <c r="B236" t="s">
-        <v>247</v>
-      </c>
-      <c r="C236" t="s">
-        <v>266</v>
+        <v>241</v>
+      </c>
+      <c r="C236" s="20" t="s">
+        <v>293</v>
       </c>
       <c r="D236" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E236">
-        <v>21</v>
+        <v>132</v>
+      </c>
+      <c r="E236" s="23" t="s">
+        <v>309</v>
       </c>
       <c r="F236" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.35">
@@ -6279,14 +6312,14 @@
       <c r="B237" t="s">
         <v>90</v>
       </c>
-      <c r="C237" t="s">
-        <v>110</v>
+      <c r="C237" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D237" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E237">
-        <v>9</v>
+      <c r="E237" s="23" t="s">
+        <v>301</v>
       </c>
       <c r="F237" s="5" t="s">
         <v>91</v>
@@ -6299,14 +6332,14 @@
       <c r="B238" t="s">
         <v>61</v>
       </c>
-      <c r="C238" t="s">
-        <v>106</v>
+      <c r="C238" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D238" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E238">
-        <v>5</v>
+      <c r="E238" s="23" t="s">
+        <v>290</v>
       </c>
       <c r="F238" s="5" t="s">
         <v>58</v>
@@ -6319,14 +6352,14 @@
       <c r="B239" t="s">
         <v>97</v>
       </c>
-      <c r="C239" t="s">
-        <v>244</v>
+      <c r="C239" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="D239" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E239">
-        <v>11</v>
+      <c r="E239" s="23" t="s">
+        <v>310</v>
       </c>
       <c r="F239" s="5" t="s">
         <v>94</v>
@@ -6337,19 +6370,19 @@
         <v>436</v>
       </c>
       <c r="B240" t="s">
-        <v>191</v>
-      </c>
-      <c r="C240" t="s">
-        <v>145</v>
+        <v>187</v>
+      </c>
+      <c r="C240" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D240" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E240">
-        <v>16</v>
+      <c r="E240" s="23" t="s">
+        <v>298</v>
       </c>
       <c r="F240" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.35">
@@ -6357,19 +6390,19 @@
         <v>512</v>
       </c>
       <c r="B241" t="s">
-        <v>248</v>
-      </c>
-      <c r="C241" t="s">
-        <v>266</v>
+        <v>242</v>
+      </c>
+      <c r="C241" s="20" t="s">
+        <v>293</v>
       </c>
       <c r="D241" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E241">
-        <v>21</v>
+        <v>132</v>
+      </c>
+      <c r="E241" s="23" t="s">
+        <v>309</v>
       </c>
       <c r="F241" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.35">
@@ -6379,14 +6412,14 @@
       <c r="B242" t="s">
         <v>15</v>
       </c>
-      <c r="C242" t="s">
-        <v>106</v>
+      <c r="C242" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D242" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E242">
-        <v>1</v>
+      <c r="E242" s="23" t="s">
+        <v>291</v>
       </c>
       <c r="F242" s="5" t="s">
         <v>7</v>
@@ -6397,16 +6430,16 @@
         <v>143</v>
       </c>
       <c r="B243" t="s">
-        <v>177</v>
-      </c>
-      <c r="C243" t="s">
-        <v>145</v>
+        <v>173</v>
+      </c>
+      <c r="C243" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D243" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E243">
-        <v>17</v>
+      <c r="E243" s="23" t="s">
+        <v>297</v>
       </c>
       <c r="F243" s="5" t="s">
         <v>19</v>
@@ -6417,19 +6450,19 @@
         <v>135</v>
       </c>
       <c r="B244" t="s">
-        <v>178</v>
-      </c>
-      <c r="C244" t="s">
-        <v>145</v>
+        <v>174</v>
+      </c>
+      <c r="C244" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D244" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E244">
-        <v>16</v>
+      <c r="E244" s="23" t="s">
+        <v>298</v>
       </c>
       <c r="F244" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.35">
@@ -6439,14 +6472,14 @@
       <c r="B245" t="s">
         <v>54</v>
       </c>
-      <c r="C245" t="s">
-        <v>106</v>
+      <c r="C245" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D245" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E245">
-        <v>4</v>
+      <c r="E245" s="23" t="s">
+        <v>289</v>
       </c>
       <c r="F245" s="5" t="s">
         <v>41</v>
@@ -6459,14 +6492,14 @@
       <c r="B246" t="s">
         <v>81</v>
       </c>
-      <c r="C246" t="s">
-        <v>110</v>
+      <c r="C246" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D246" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E246">
-        <v>8</v>
+      <c r="E246" s="23" t="s">
+        <v>300</v>
       </c>
       <c r="F246" s="5" t="s">
         <v>78</v>
@@ -6479,14 +6512,14 @@
       <c r="B247" t="s">
         <v>98</v>
       </c>
-      <c r="C247" t="s">
-        <v>244</v>
+      <c r="C247" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="D247" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E247">
-        <v>11</v>
+      <c r="E247" s="23" t="s">
+        <v>310</v>
       </c>
       <c r="F247" s="5" t="s">
         <v>94</v>
@@ -6497,19 +6530,19 @@
         <v>509</v>
       </c>
       <c r="B248" t="s">
-        <v>207</v>
-      </c>
-      <c r="C248" t="s">
-        <v>266</v>
+        <v>202</v>
+      </c>
+      <c r="C248" s="20" t="s">
+        <v>293</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E248">
-        <v>19</v>
+        <v>132</v>
+      </c>
+      <c r="E248" s="23" t="s">
+        <v>307</v>
       </c>
       <c r="F248" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.35">
@@ -6519,14 +6552,14 @@
       <c r="B249" t="s">
         <v>89</v>
       </c>
-      <c r="C249" t="s">
-        <v>110</v>
+      <c r="C249" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D249" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E249">
-        <v>8</v>
+      <c r="E249" s="23" t="s">
+        <v>300</v>
       </c>
       <c r="F249" s="5" t="s">
         <v>78</v>
@@ -6537,19 +6570,19 @@
         <v>437</v>
       </c>
       <c r="B250" t="s">
-        <v>130</v>
-      </c>
-      <c r="C250" t="s">
-        <v>244</v>
+        <v>128</v>
+      </c>
+      <c r="C250" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="D250" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E250">
-        <v>15</v>
+      <c r="E250" s="23" t="s">
+        <v>305</v>
       </c>
       <c r="F250" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.35">
@@ -6557,19 +6590,19 @@
         <v>527</v>
       </c>
       <c r="B251" t="s">
-        <v>249</v>
-      </c>
-      <c r="C251" t="s">
-        <v>266</v>
+        <v>243</v>
+      </c>
+      <c r="C251" s="20" t="s">
+        <v>293</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E251">
-        <v>21</v>
+        <v>132</v>
+      </c>
+      <c r="E251" s="23" t="s">
+        <v>309</v>
       </c>
       <c r="F251" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.35">
@@ -6579,14 +6612,14 @@
       <c r="B252" t="s">
         <v>88</v>
       </c>
-      <c r="C252" t="s">
-        <v>110</v>
+      <c r="C252" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="D252" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E252">
-        <v>8</v>
+      <c r="E252" s="23" t="s">
+        <v>300</v>
       </c>
       <c r="F252" s="5" t="s">
         <v>78</v>
@@ -6597,19 +6630,19 @@
         <v>407</v>
       </c>
       <c r="B253" t="s">
-        <v>120</v>
-      </c>
-      <c r="C253" t="s">
-        <v>244</v>
+        <v>118</v>
+      </c>
+      <c r="C253" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="D253" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E253">
-        <v>14</v>
+      <c r="E253" s="23" t="s">
+        <v>306</v>
       </c>
       <c r="F253" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.35">
@@ -6617,104 +6650,107 @@
         <v>106</v>
       </c>
       <c r="B254" t="s">
-        <v>202</v>
-      </c>
-      <c r="C254" t="s">
-        <v>145</v>
+        <v>198</v>
+      </c>
+      <c r="C254" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="D254" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E254">
-        <v>17</v>
+      <c r="E254" s="23" t="s">
+        <v>297</v>
       </c>
       <c r="F254" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A255" s="18">
+      <c r="A255" s="17">
         <v>251</v>
       </c>
-      <c r="B255" s="19" t="s">
+      <c r="B255" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C255" t="s">
-        <v>106</v>
+      <c r="C255" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D255" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E255">
-        <v>4</v>
+      <c r="E255" s="23" t="s">
+        <v>289</v>
       </c>
       <c r="F255" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A256" s="18">
+      <c r="A256" s="17">
         <v>252</v>
       </c>
-      <c r="B256" s="19" t="s">
+      <c r="B256" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C256" t="s">
-        <v>106</v>
+      <c r="C256" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D256" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E256">
-        <v>4</v>
+      <c r="E256" s="23" t="s">
+        <v>289</v>
       </c>
       <c r="F256" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A257" s="18">
+      <c r="A257" s="17">
         <v>998</v>
       </c>
-      <c r="B257" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="C257" t="s">
-        <v>205</v>
+      <c r="B257" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="C257" s="20" t="s">
+        <v>294</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="E257">
-        <v>98</v>
+        <v>245</v>
+      </c>
+      <c r="E257" s="23" t="s">
+        <v>294</v>
       </c>
       <c r="F257" s="5" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A258" s="18">
+      <c r="A258" s="17">
         <v>999</v>
       </c>
-      <c r="B258" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="C258" t="s">
-        <v>147</v>
+      <c r="B258" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C258" s="20" t="s">
+        <v>295</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E258">
-        <v>99</v>
+        <v>142</v>
+      </c>
+      <c r="E258" s="23" t="s">
+        <v>295</v>
       </c>
       <c r="F258" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C4:C258 E4:E258" numberStoredAsText="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
